--- a/src/test/java/Utilities/Input.xlsx
+++ b/src/test/java/Utilities/Input.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="41">
   <si>
     <t>Bookshelf under 15000</t>
   </si>
